--- a/Data_100.xlsx
+++ b/Data_100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d95cbd8d73c078d1/Máy tính/Honour Project/Xuan Vuong Tran/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\152208_admin\OneDrive - UTS\3.Research Project\25.Capstone\2023\Xuan Vuong Tran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="102_{919FE72C-30D9-49A7-A1BB-B04307976130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA6F0A1-0B2E-4AB9-A91A-67342262A055}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="102_{919FE72C-30D9-49A7-A1BB-B04307976130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9EE1904-B2EC-4283-94A5-DBE580F896D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="1920" windowWidth="38400" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -796,6 +796,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3585,6 +3589,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD725B5964BD264EB6D92179109DE1E1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ffaed4d47b788d70b6d31cf33b3fdc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="77bbf1db-9c30-46cf-8539-7348241e231c" xmlns:ns4="5b370a73-69d7-4a7b-a549-45d842a8c401" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24db7bb788e686214c9bd092066c6caa" ns3:_="" ns4:_="">
     <xsd:import namespace="77bbf1db-9c30-46cf-8539-7348241e231c"/>
@@ -3825,15 +3838,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3843,6 +3847,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F69AC0-AD90-462B-B60E-C9AD75E1FC7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF64AEC8-1848-4950-ADC2-6CC24499B2E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3857,14 +3869,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F69AC0-AD90-462B-B60E-C9AD75E1FC7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data_100.xlsx
+++ b/Data_100.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\152208_admin\OneDrive - UTS\3.Research Project\25.Capstone\2023\Xuan Vuong Tran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d95cbd8d73c078d1/Máy tính/Honour Project/Xuan Vuong Tran/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="102_{919FE72C-30D9-49A7-A1BB-B04307976130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9EE1904-B2EC-4283-94A5-DBE580F896D0}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="102_{919FE72C-30D9-49A7-A1BB-B04307976130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C088E932-DFCD-44B6-ACB6-D858E7FA8461}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="1920" windowWidth="38400" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$103</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="217">
   <si>
     <t>Number</t>
   </si>
@@ -686,9 +683,6 @@
   </si>
   <si>
     <t>Chromatographic retention time peak shifts between consecutive analyses is a well-known fact yet not fully understood. Algorithms have been developed to align peaks between runs, but with no specific studies considering the causes of peak shifts. Here, designed experiments reveal chromatographic shift patterns for a complex peptide mixture that are attributable to the temperature and pH of the mobile phase. These results demonstrate that peak shifts are highly structured and are to a high degree explained by underlying differences in physico-chemical parameters of the chromatographic system and also provide experimental support for the alignment algorithm called the generalized fuzzy Hough transform which exploits this fact. It can be expected that the development of alignment algorithms enters a new phase resulting in increasingly accurate alignment by considering the latent structure of the peak shifts.</t>
-  </si>
-  <si>
-    <t>Manual</t>
   </si>
 </sst>
 </file>
@@ -755,7 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -777,9 +771,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,10 +787,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1065,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1087,53 +1074,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D1" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1150,36 +1150,36 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1196,19 +1196,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -1219,16 +1219,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -1237,18 +1237,18 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1264,69 +1264,69 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>10</v>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -1335,21 +1335,21 @@
         <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -1358,18 +1358,18 @@
         <v>8</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -1386,249 +1386,249 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="I16" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
-        <v>7</v>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>7</v>
+      <c r="G21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>10</v>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
@@ -1637,18 +1637,18 @@
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
@@ -1665,21 +1665,27 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -1687,130 +1693,124 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>9</v>
+      <c r="G26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>7</v>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>8</v>
@@ -1819,67 +1819,67 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="D31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>7</v>
+      <c r="G31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -1896,166 +1896,166 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>10</v>
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>7</v>
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="10" t="s">
+      <c r="D38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="10" t="s">
+      <c r="G38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I38" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -2064,67 +2064,67 @@
         <v>8</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
@@ -2133,69 +2133,69 @@
         <v>8</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4" t="s">
-        <v>7</v>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -2204,21 +2204,21 @@
         <v>8</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -2227,116 +2227,116 @@
         <v>8</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>47</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="8" t="s">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
@@ -2353,21 +2353,27 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -2376,19 +2382,19 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>11</v>
@@ -2405,42 +2411,36 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>7</v>
@@ -2457,119 +2457,119 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I61" s="2" t="s">
@@ -2578,21 +2578,27 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -2601,45 +2607,39 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>7</v>
@@ -2648,120 +2648,120 @@
         <v>8</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>9</v>
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>64</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4" t="s">
-        <v>7</v>
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>9</v>
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>66</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4" t="s">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>7</v>
@@ -2778,36 +2778,36 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
@@ -2823,62 +2823,62 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>10</v>
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>71</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4" t="s">
-        <v>7</v>
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>10</v>
@@ -2895,59 +2895,61 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>9</v>
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>7</v>
@@ -2965,94 +2967,92 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>76</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4" t="s">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>7</v>
@@ -3061,144 +3061,144 @@
         <v>8</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>9</v>
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
-        <v>81</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="8" t="s">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>9</v>
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>84</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4" t="s">
-        <v>7</v>
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -3207,41 +3207,41 @@
         <v>8</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>7</v>
@@ -3257,37 +3257,39 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="2" t="s">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>7</v>
@@ -3306,19 +3308,19 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>8</v>
@@ -3326,46 +3328,44 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>91</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4" t="s">
-        <v>10</v>
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>7</v>
@@ -3374,21 +3374,21 @@
         <v>8</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>7</v>
@@ -3397,21 +3397,21 @@
         <v>8</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>7</v>
@@ -3420,181 +3420,153 @@
         <v>8</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="2" t="s">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
-        <v>99</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="8" t="s">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="A102" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F102" s="2">
         <v>0.8</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H102" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="1">
-    <mergeCell ref="D1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="77bbf1db-9c30-46cf-8539-7348241e231c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3839,17 +3811,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="77bbf1db-9c30-46cf-8539-7348241e231c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F69AC0-AD90-462B-B60E-C9AD75E1FC7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998C5065-F6A5-49D9-A519-C88B9EBEAC44}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5b370a73-69d7-4a7b-a549-45d842a8c401"/>
+    <ds:schemaRef ds:uri="77bbf1db-9c30-46cf-8539-7348241e231c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3874,18 +3856,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998C5065-F6A5-49D9-A519-C88B9EBEAC44}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F69AC0-AD90-462B-B60E-C9AD75E1FC7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5b370a73-69d7-4a7b-a549-45d842a8c401"/>
-    <ds:schemaRef ds:uri="77bbf1db-9c30-46cf-8539-7348241e231c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data_100.xlsx
+++ b/Data_100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d95cbd8d73c078d1/Máy tính/Honour Project/Xuan Vuong Tran/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="102_{919FE72C-30D9-49A7-A1BB-B04307976130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C088E932-DFCD-44B6-ACB6-D858E7FA8461}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="102_{919FE72C-30D9-49A7-A1BB-B04307976130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E549233-F383-4DCD-B8E0-FDED9DC6F383}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="216">
   <si>
     <t>Number</t>
   </si>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>Combined</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agreement (%)</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -787,6 +783,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1052,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1130,10 +1130,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1153,10 +1153,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1199,10 +1199,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -1222,10 +1222,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1245,10 +1245,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1268,10 +1268,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>7</v>
@@ -1297,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -1320,10 +1320,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -1343,10 +1343,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
@@ -1366,10 +1366,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -1389,10 +1389,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -1412,10 +1412,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -1441,10 +1441,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>7</v>
@@ -1470,10 +1470,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
@@ -1493,10 +1493,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>7</v>
@@ -1518,10 +1518,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -1547,10 +1547,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
@@ -1570,10 +1570,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>10</v>
@@ -1599,10 +1599,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
@@ -1622,10 +1622,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -1645,10 +1645,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
@@ -1668,10 +1668,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -1697,10 +1697,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>7</v>
@@ -1726,10 +1726,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
@@ -1755,10 +1755,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>7</v>
@@ -1778,10 +1778,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -1801,10 +1801,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -1824,10 +1824,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>10</v>
@@ -1853,10 +1853,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -1876,10 +1876,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -1899,10 +1899,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>10</v>
@@ -1922,10 +1922,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>10</v>
@@ -1951,10 +1951,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>10</v>
@@ -1974,10 +1974,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -1997,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>7</v>
@@ -2026,10 +2026,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>7</v>
@@ -2049,10 +2049,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
@@ -2072,10 +2072,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>10</v>
@@ -2095,10 +2095,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
@@ -2118,10 +2118,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>7</v>
@@ -2141,10 +2141,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>7</v>
@@ -2166,10 +2166,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>10</v>
@@ -2189,10 +2189,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>9</v>
@@ -2212,10 +2212,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>10</v>
@@ -2235,10 +2235,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>10</v>
@@ -2264,10 +2264,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>10</v>
@@ -2287,10 +2287,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
@@ -2310,10 +2310,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -2333,10 +2333,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
@@ -2356,10 +2356,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>10</v>
@@ -2385,10 +2385,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>7</v>
@@ -2414,10 +2414,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>7</v>
@@ -2437,10 +2437,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>7</v>
@@ -2460,10 +2460,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>10</v>
@@ -2483,10 +2483,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>7</v>
@@ -2506,10 +2506,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>10</v>
@@ -2529,10 +2529,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>7</v>
@@ -2558,10 +2558,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>9</v>
@@ -2581,10 +2581,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>10</v>
@@ -2610,10 +2610,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>7</v>
@@ -2633,10 +2633,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
@@ -2656,10 +2656,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>7</v>
@@ -2681,10 +2681,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>10</v>
@@ -2710,10 +2710,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>7</v>
@@ -2735,10 +2735,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>7</v>
@@ -2758,10 +2758,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>7</v>
@@ -2781,10 +2781,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>10</v>
@@ -2804,10 +2804,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
@@ -2827,10 +2827,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>7</v>
@@ -2852,10 +2852,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>10</v>
@@ -2875,10 +2875,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>10</v>
@@ -2898,10 +2898,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>9</v>
@@ -2921,10 +2921,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>7</v>
@@ -2946,10 +2946,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>7</v>
@@ -2971,10 +2971,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>7</v>
@@ -2994,10 +2994,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>10</v>
@@ -3023,10 +3023,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>7</v>
@@ -3046,10 +3046,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>9</v>
@@ -3069,10 +3069,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>10</v>
@@ -3098,10 +3098,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>10</v>
@@ -3121,10 +3121,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
@@ -3144,10 +3144,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>7</v>
@@ -3169,10 +3169,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>9</v>
@@ -3192,10 +3192,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>10</v>
@@ -3215,10 +3215,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>7</v>
@@ -3238,10 +3238,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>7</v>
@@ -3261,10 +3261,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>7</v>
@@ -3286,10 +3286,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>7</v>
@@ -3311,10 +3311,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>10</v>
@@ -3336,10 +3336,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>7</v>
@@ -3359,10 +3359,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>9</v>
@@ -3382,10 +3382,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>7</v>
@@ -3405,10 +3405,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>9</v>
@@ -3428,10 +3428,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>10</v>
@@ -3451,10 +3451,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>7</v>
@@ -3474,10 +3474,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>10</v>
@@ -3497,10 +3497,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>7</v>
@@ -3526,11 +3526,11 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="D101" s="2" t="s">
         <v>10</v>
       </c>
@@ -3542,17 +3542,6 @@
       </c>
       <c r="I101" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H102" s="2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3562,14 +3551,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="77bbf1db-9c30-46cf-8539-7348241e231c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD725B5964BD264EB6D92179109DE1E1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ffaed4d47b788d70b6d31cf33b3fdc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="77bbf1db-9c30-46cf-8539-7348241e231c" xmlns:ns4="5b370a73-69d7-4a7b-a549-45d842a8c401" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24db7bb788e686214c9bd092066c6caa" ns3:_="" ns4:_="">
     <xsd:import namespace="77bbf1db-9c30-46cf-8539-7348241e231c"/>
@@ -3810,6 +3791,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="77bbf1db-9c30-46cf-8539-7348241e231c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3820,23 +3809,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998C5065-F6A5-49D9-A519-C88B9EBEAC44}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5b370a73-69d7-4a7b-a549-45d842a8c401"/>
-    <ds:schemaRef ds:uri="77bbf1db-9c30-46cf-8539-7348241e231c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF64AEC8-1848-4950-ADC2-6CC24499B2E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3855,6 +3827,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998C5065-F6A5-49D9-A519-C88B9EBEAC44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5b370a73-69d7-4a7b-a549-45d842a8c401"/>
+    <ds:schemaRef ds:uri="77bbf1db-9c30-46cf-8539-7348241e231c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F69AC0-AD90-462B-B60E-C9AD75E1FC7F}">
   <ds:schemaRefs>
